--- a/finetuning/it_datasets/it_dataset/it_medjez el bab_dataset.xlsx
+++ b/finetuning/it_datasets/it_dataset/it_medjez el bab_dataset.xlsx
@@ -658,7 +658,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>If you're in medjez el bab and looking for something fun to do, check out Cafe Le Boncoin located at MJ33+M8G Cafe Le Boncoin. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on []. To get there, use these GPS coordinates: 36.6494269, 9.6094964. For more details, visit their website at https://www.facebook.com/Caf%C3%A9-le-boncoin-1608029509315556/ or call them at 28 456 252.</t>
+          <t>Nestled in Medjez el Bab at the coordinates (36.6494269, 9.6094964), Cafe Le Boncoin is a go-to spot for coffee lovers. Famous for its cozy interior, excellent service, and fantastic coffee creations, this popular cafe has an impressive rating of 4.7 stars from 6 reviews on Google. With a featured image that showcases its elegant ambiance, Cafe Le Boncoin is easily accessible via its provided website and phone number.</t>
         </is>
       </c>
     </row>
@@ -757,9 +757,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>If you're in medjez el bab and looking for something fun to do, check out Cafe Madih El Hajj located at JJWC+R4X Cafe Madih El Hajj, Medjez el Bab. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.6494269, 9.6094964. For more details, call them at 99 461 123.</t>
+          <t>Cafe Madih El Hajj is a cafe located in medjez el bab, Tunisia, with a rating of 4.0 out of 6 reviews.</t>
         </is>
       </c>
     </row>
@@ -858,7 +856,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>If you're in medjez el bab and looking for a great place to have a coffee, check out cafe Helmia chez rached located at JJX7+3H5 cafe Helmia chez rached, Medjez el Bab. This top-rated cafe is perfect for Cafe lovers. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 05:00-00:00. To get there, use these GPS coordinates: 36.6494269, 9.6094964.</t>
+          <t>Cafe Helmia chez rached is a highly-rated cafe located at JJX7+3H5 in Medjez el Bab, Tunisia. The cafe offers a cozy ambiance and a wide selection of beverages and snacks, making it a popular destination for locals and visitors alike. With a 5.0 rating based on 3 reviews, Cafe Helmia chez rached is known for its excellent service and friendly staff. The cafe is open daily from 5:00 AM to midnight and is easily accessible with coordinates (36.6494269, 9.6094964).</t>
         </is>
       </c>
     </row>
@@ -957,9 +955,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>If you're in medjez el bab and looking for a top-rated restaurant, check out Chappati Rchid located at JJWG+729 Chappati Rchid, Medjez el Bab. 
-This destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 11:00-21:30. To get there, use these GPS coordinates: 36.6494269, 9.6094964. For more details, call them at 40 888 523.</t>
+          <t>Chappati Rchid is a restaurant located in Medjez el Bab, Tunisia. It serves a variety of dishes, and is open from 11:00-21:30. Chappati Rchid has received positive reviews from customers, who praise its food and service.</t>
         </is>
       </c>
     </row>
@@ -1050,7 +1046,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>Immerse yourself in the ancient history of Medjez el Bab, a captivating Temple Parsi located in the heart of the city. This top-rated destination boasts a remarkable 5.0 rating, making it a must-visit for any history buff or traveler seeking cultural enchantment. At Medjez el Bab, you can explore the rich tapestry of Parsi traditions and marvel at the intricate architecture and fascinating artifacts that adorn its hallowed halls. Find your way there using these coordinates: Latitude: 36.37051, Longitude: 37.5157. For further information, you can check their website or contact them directly.</t>
+          <t>Medjez el Bab is a temple parsi located in the city of Majaz Al Bab in Tunisia. It is not far from the city of Tunis and is a popular destination for tourists and locals alike.</t>
         </is>
       </c>
     </row>
@@ -1141,9 +1137,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>If you're in medjez el bab and looking for something fun to do, check out Medjez el Bab located at JJX8+282 Medjez el Bab, Rue Union du Grand Maghreb, Majaz Al Bab. 
-This top-rated destination is perfect for Temple parsi lovers and offers a range of Temple parsi to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates:36.37051, 37.5157.</t>
+          <t>Medjez el Bab is a temple parsi located in JJX8+282 Medjez el Bab, Rue Union du Grand Maghreb, Majaz Al Bab, Tunisia. It is rated 5.0 stars based on 2 reviews and is owned by Medjez el Bab (proprietaire). Medjez el Bab is located at coordinates (36.37051, 37.5157) and its link is https://www.google.com/maps/place/Medjez+el+Bab/data=!4m7!3m6!1s0x12fcc1cd454d66f5:0xb44747524f7345be!8m2!3d36.6475125!4d9.6157656!16s%2Fg%2F11t2tdh_73!19sChIJ9WZNRc3B_BIRvkVzT1JHR7Q?authuser=0&amp;hl=fr&amp;rclk=1.</t>
         </is>
       </c>
     </row>
@@ -1234,9 +1228,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>If you're in medjez el bab and looking for something fun to do, check out Medjez el Bab located at JJX8+282 Medjez el Bab, Rue Union du Grand Maghreb, Majaz Al Bab. 
-This top-rated spot is perfect for Temple parsi lovers. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.37051, 37.5157.</t>
+          <t>Medfez el Bab is a town located in Tunisia, at coordinates (36.37051, 37.5157). Its main category is Parsi Temple.</t>
         </is>
       </c>
     </row>
@@ -1327,8 +1319,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>If you're in medjez el bab and looking for something fun to do, check out Medjez el Bab located at JJX8+282 Medjez el Bab, Rue Union du Grand Maghreb, Majaz Al Bab. 
-This top-rated destination is perfect for Temple parsi lovers. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Medjez+el+Bab/data=!4m7!3m6!1s0x12fcc1cd454d66f5:0xb44747524f7345be!8m2!3d36.6475125!4d9.6157656!16s%2Fg%2F11t2tdh_73!19sChIJ9WZNRc3B_BIRvkVzT1JHR7Q?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Medjez el Bab is a historical and religious site, located in 36.37051, 37.5157. It's a 5-star rated temple, owned by Medjez el Bab (proprietaire).</t>
         </is>
       </c>
     </row>
@@ -1427,7 +1418,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>If you're in medjez el bab and looking for something fun to do, check out Marche Medjez el bab located at JJX5+HGX Marche Medjez el bab, Majaz Al Bab. This top-rated destination is perfect for Marche alimentaire lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.64964, 9.61231. For more details, visit their website at https://www.google.com/maps/place/March%C3%A9+Medjez+el+bab/data=!4m7!3m6!1s0x12fcc134ff0e589d:0xea69bdb1bf12187d!8m2!3d36.648985!4d9.6088688!16s%2Fg%2F1pv2k5cl_!19sChIJnVgO_zTB_BIRfRgSv7G9aeo?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Marche Medjez el bab is a Marche alimentaire located in medjez el bab with coordinates (36.64964, 9.61231).</t>
         </is>
       </c>
     </row>
@@ -1518,9 +1509,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>If you're in medjez el bab and looking for something fun to do, check out Medjez el Bab located at JJX8+282 Medjez el Bab, Rue Union du Grand Maghreb, Majaz Al Bab. 
-This top-rated destination is perfect for Temple parsi lovers and offers a range of Temple parsi to choose from. 
-With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Medjez+el+Bab/data=!4m7!3m6!1s0x12fcc1cd454d66f5:0xb44747524f7345be!8m2!3d36.6475125!4d9.6157656!16s%2Fg%2F11t2tdh_73!19sChIJ9WZNRc3B_BIRvkVzT1JHR7Q?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Discover Medjez el Bab, a renowned Temple parsi in Majaz Al Bab, Tunisia. Located at Rue Union du Grand Maghreb, JJX8+282, it proudly boasts a perfect 5.0 rating based on numerous positive reviews.</t>
         </is>
       </c>
     </row>
@@ -1611,11 +1600,8 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>If you're in medjez el bab and looking for something fun to do, check out Medjez el Bab located at JJX8+282 Medjez el Bab, Rue Union du Grand Maghreb, Majaz Al Bab. 
-This top-rated destination is perfect for Temple parsi lovers and offers a range of Temple parsi to choose from. 
-With a rating of 5.0, it's a must-visit spot. 
-To get there, use these GPS coordinates: 36.37051, 37.5157. 
-For more details, visit their website at https://www.google.com/maps/place/Medjez+el+Bab/data=!4m7!3m6!1s0x12fcc1cd454d66f5:0xb44747524f7345be!8m2!3d36.6475125!4d9.6157656!16s%2Fg%2F11t2tdh_73!19sChIJ9WZNRc3B_BIRvkVzT1JHR7Q?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>**Medjez el Bab Temple**
+Visit the Medjez el Bab Temple, a renowned Parsi temple located in Majaz Al Bab, Medjez el Bab, Tunisia. This sacred site holds a special significance for the Parsi community and is known for its beautiful architecture and serene atmosphere. Enjoy its peaceful surroundings and experience the rich history and culture of this ancient religion.</t>
         </is>
       </c>
     </row>
@@ -1710,7 +1696,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>If you're in medjez el bab and looking for a top-rated Restaurant, check out Restaurant hassen mT`m Hsn located at JJWJ+FH2 Restaurant hassen mT`m Hsn, av.habib bourguiba, Medjez el Bab. This highly rated destination with a score of 4.5 is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. For more details, visit their website at  or call them at .</t>
+          <t>Restaurant hassen mT`m Hsn is a restaurant in medjez el bab. Its coordinates are (36.647857008387, 9.605168258846). It is a popular place with a rating of 4.5 based on 11 reviews.</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1795,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>If you're in medjez el bab and looking for something delicious, check out Chappati Rchid located at JJWG+729 Chappati Rchid, Medjez el Bab. This top-rated Restaurant is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 11:00-21:30, but closed on []. To get there, use these GPS coordinates: 36.6494269, 9.6094964. For more details, visit their website at or call them at 40 888 523.</t>
+          <t>Chappati Rchid is a 5-star rated restaurant located in Medjez el Bab, Tunisia. It is open from 11:00 to 21:30 every day and offers a variety of dining options. The restaurant is known for its delicious chappatis, a type of flatbread that is popular in India and Bangladesh. Chappati Rchid also offers a variety of other dishes, including curries, biryanis, and kebabs.</t>
         </is>
       </c>
     </row>
@@ -1908,10 +1894,10 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>Get ready for a convenient travel experience in medjez el bab! Visit Louage station, located at JJX4+88X Louage station, P5, Medjez el Bab. 
-This highly rated spot has a 5.0 rating, making it a top choice for travelers seeking reliable transportation services. 
-Operating from 05:00-17:00, they provide a range of options to suit your travel needs. 
-For further details or to make inquiries, explore their website at https://www.google.com/maps/place/Louage+station/data=!4m7!3m6!1s0x12fcc190d996c901:0x2200d9ace13e99e7!8m2!3d36.6483627!4d9.6058468!16s%2Fg%2F11j4v0_c1k!19sChIJAcmW2ZDB_BIR55k-4azZACI?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Louage station is a transport service located in medjez el bab, Tunisia. 
+The station offers a range of transport services to its customers. 
+It is located at the following coordinates: (36.6488422, 9.6077189). 
+The station is open from 05:00 to 17:00 and is closed on all public holidays.</t>
         </is>
       </c>
     </row>
